--- a/core/modules/core/test/smoketest/charts.xlsx
+++ b/core/modules/core/test/smoketest/charts.xlsx
@@ -348,24 +348,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="60548992"/>
-        <c:axId val="60550528"/>
+        <c:axId val="58398592"/>
+        <c:axId val="58400128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="60548992"/>
+        <c:axId val="58398592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60550528"/>
+        <c:crossAx val="58400128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60550528"/>
+        <c:axId val="58400128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -373,7 +373,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60548992"/>
+        <c:crossAx val="58398592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -384,8 +384,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.89760223359330771"/>
-          <c:y val="0.40750427935638645"/>
+          <c:x val="0.89760223359330793"/>
+          <c:y val="0.40750427935638656"/>
           <c:w val="9.4158830442341024E-2"/>
           <c:h val="0.24665525504964053"/>
         </c:manualLayout>
@@ -395,7 +395,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000433" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000433" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000455" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000455" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -469,7 +469,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -828,7 +828,7 @@
   <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -943,6 +943,42 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
